--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/187.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/187.xlsx
@@ -479,13 +479,13 @@
         <v>-5.428203612594434</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.67729901449304</v>
+        <v>-14.66567304956959</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08613697423480789</v>
+        <v>-0.09587764754905208</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.14669770716477</v>
+        <v>-11.13118332829733</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.312711367350827</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.83346400278915</v>
+        <v>-14.82297706821293</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01947096816473874</v>
+        <v>-0.03053396406599727</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.85481790761133</v>
+        <v>-10.84033782066838</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.14792621269179</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.19331903869683</v>
+        <v>-15.18183708910464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01960955581781357</v>
+        <v>0.009436836509792415</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.4876049975066</v>
+        <v>-10.471854957188</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.955188992299241</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.70110400441318</v>
+        <v>-15.6884961167766</v>
       </c>
       <c r="F5" t="n">
-        <v>0.144667232561981</v>
+        <v>0.133001990730003</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.30001848239035</v>
+        <v>-10.28358764232398</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.737455650968811</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.1844063638155</v>
+        <v>-16.17092129188852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1369820507938878</v>
+        <v>0.1258666856812623</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.14022692620708</v>
+        <v>-10.12310219409011</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.505436493434011</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.75157801522191</v>
+        <v>-16.73597199023457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2661376183275154</v>
+        <v>0.2516444390817247</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.99283378081493</v>
+        <v>-9.975853064029213</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.256709311172958</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.33447352234124</v>
+        <v>-17.31707385186459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4185451157080486</v>
+        <v>0.4055444589862146</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.787520287650983</v>
+        <v>-9.770618124682315</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.996656569311329</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0575090390784</v>
+        <v>-18.03779203099877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6932870908416702</v>
+        <v>0.6785844347504117</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.823772874219722</v>
+        <v>-9.806569588285694</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.717613093422216</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.53794418415838</v>
+        <v>-18.51689176118889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7384031664342582</v>
+        <v>0.7255334327408415</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.478829971248766</v>
+        <v>-9.46233366966819</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.417163851611422</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.13918200755897</v>
+        <v>-19.11647995443142</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8639321660807278</v>
+        <v>0.8510624323873109</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.430440819945746</v>
+        <v>-9.413289903223085</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.093412135976414</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.68511794375611</v>
+        <v>-19.66185292160636</v>
       </c>
       <c r="F12" t="n">
-        <v>1.019350893114858</v>
+        <v>1.0048053446577</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.938549909879256</v>
+        <v>-8.921189516311127</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.743456561417766</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.49584570492715</v>
+        <v>-20.47145474473302</v>
       </c>
       <c r="F13" t="n">
-        <v>1.202211086905246</v>
+        <v>1.186591969615067</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.442888416594348</v>
+        <v>-8.423341608451652</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.374745940421014</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.32750805834212</v>
+        <v>-21.30295999051388</v>
       </c>
       <c r="F14" t="n">
-        <v>1.519804169239837</v>
+        <v>1.502417591066025</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.981934618142857</v>
+        <v>-7.959716980220448</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.988249603071246</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.14990106134514</v>
+        <v>-22.12475074758618</v>
       </c>
       <c r="F15" t="n">
-        <v>1.631507697085444</v>
+        <v>1.613414134558178</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.537241459820789</v>
+        <v>-7.512693391992554</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.590382726260891</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.00849428170553</v>
+        <v>-22.98402476769435</v>
       </c>
       <c r="F16" t="n">
-        <v>1.908540825216367</v>
+        <v>1.889714093729965</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.961808565321245</v>
+        <v>-6.939027958376642</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.187584782909401</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.62264111570806</v>
+        <v>-23.59876075532475</v>
       </c>
       <c r="F17" t="n">
-        <v>2.098536324055496</v>
+        <v>2.079395377300893</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.873946120950421</v>
+        <v>-6.850393068138157</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.7840455487469875</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.43372236905584</v>
+        <v>-24.40913502431907</v>
       </c>
       <c r="F18" t="n">
-        <v>2.510865309752817</v>
+        <v>2.489681963754904</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.473020531028244</v>
+        <v>-6.449532939730187</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.3940583607662961</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.28194648556558</v>
+        <v>-25.25623320278443</v>
       </c>
       <c r="F19" t="n">
-        <v>2.775486934789784</v>
+        <v>2.75398937352367</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.171923750274228</v>
+        <v>-6.149549004717718</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.03082797290977383</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.03504192962735</v>
+        <v>-26.00928936993768</v>
       </c>
       <c r="F20" t="n">
-        <v>2.997401467957041</v>
+        <v>2.975956275902294</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.054237040029952</v>
+        <v>-6.029126003179522</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2857979502105804</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.61886699024844</v>
+        <v>-26.59302278443887</v>
       </c>
       <c r="F21" t="n">
-        <v>3.316565626632639</v>
+        <v>3.295958341959762</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.727021115106693</v>
+        <v>-5.703585893020003</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5309149718278912</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.20485228083842</v>
+        <v>-27.17878550588054</v>
       </c>
       <c r="F22" t="n">
-        <v>3.526173395128673</v>
+        <v>3.507399032853638</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.575189679051196</v>
+        <v>-5.548638488888176</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6858177754167081</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.65424557588066</v>
+        <v>-27.62935710817854</v>
       </c>
       <c r="F23" t="n">
-        <v>3.709387081095788</v>
+        <v>3.690900749483271</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.378255259705952</v>
+        <v>-5.352712176861745</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7307613170099682</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.88312521415972</v>
+        <v>-27.85792253118939</v>
       </c>
       <c r="F24" t="n">
-        <v>3.844892415507653</v>
+        <v>3.826196607049668</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.215164443206571</v>
+        <v>-5.189254775882794</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6556074436196616</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.15197565301456</v>
+        <v>-28.12758469282043</v>
       </c>
       <c r="F25" t="n">
-        <v>4.159788483456848</v>
+        <v>4.140909382759079</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.923350105167338</v>
+        <v>-4.898291437528274</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4606313745058113</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.11221432928424</v>
+        <v>-28.08800666132989</v>
       </c>
       <c r="F26" t="n">
-        <v>4.317000855980295</v>
+        <v>4.296367386701735</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.925353227502122</v>
+        <v>-4.899338821755613</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.1487885673002076</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.00577390718101</v>
+        <v>-27.98237796200284</v>
       </c>
       <c r="F27" t="n">
-        <v>4.272408472501375</v>
+        <v>4.253031864295621</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.746211247718785</v>
+        <v>-4.722985502477562</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.2626723085704915</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.9530250190317</v>
+        <v>-27.92886972028871</v>
       </c>
       <c r="F28" t="n">
-        <v>4.255571771046916</v>
+        <v>4.238054269844686</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.665457923791018</v>
+        <v>-4.644038916341954</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.7525244944473168</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.74265789697084</v>
+        <v>-27.72000821305465</v>
       </c>
       <c r="F29" t="n">
-        <v>4.2448360827167</v>
+        <v>4.227789904416773</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.547849767363793</v>
+        <v>-4.5274257749307</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.295397233082555</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.59830216583797</v>
+        <v>-27.57630709706387</v>
       </c>
       <c r="F30" t="n">
-        <v>4.150754794496057</v>
+        <v>4.135253507931454</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.50171249214955</v>
+        <v>-4.481419422744874</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.858264149915419</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.15552048373079</v>
+        <v>-27.13441569154993</v>
       </c>
       <c r="F31" t="n">
-        <v>4.007394078379157</v>
+        <v>3.992756883802107</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.597325579802676</v>
+        <v>-4.57915346345836</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.415170204798929</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.78130319160574</v>
+        <v>-26.76116722983516</v>
       </c>
       <c r="F32" t="n">
-        <v>3.923210571106858</v>
+        <v>3.909385099305995</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.677882519187817</v>
+        <v>-4.659919879688968</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.938314816282557</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.36165560861989</v>
+        <v>-26.34153273915216</v>
       </c>
       <c r="F33" t="n">
-        <v>3.79055935871449</v>
+        <v>3.777021917576145</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.624505200502099</v>
+        <v>-4.611177236209222</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.405676612187173</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.87669052675667</v>
+        <v>-25.85722227243103</v>
       </c>
       <c r="F34" t="n">
-        <v>3.663354544304279</v>
+        <v>3.650890671998956</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.449592034536638</v>
+        <v>-4.438411207909804</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.805922573237203</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.47223001506723</v>
+        <v>-25.45388769878597</v>
       </c>
       <c r="F35" t="n">
-        <v>3.42337263321544</v>
+        <v>3.410594545641916</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.460249169049804</v>
+        <v>-4.451071464757754</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.128708066066377</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.78294645505603</v>
+        <v>-24.7644863080492</v>
       </c>
       <c r="F36" t="n">
-        <v>3.21098929651696</v>
+        <v>3.200279792792428</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.732045376044037</v>
+        <v>-4.7238757790708</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.37863494867559</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.30664847767404</v>
+        <v>-24.28923571489455</v>
       </c>
       <c r="F37" t="n">
-        <v>3.079306914534879</v>
+        <v>3.068073718696678</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.730212453646195</v>
+        <v>-4.723836502162275</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.561960988563817</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.89367796913747</v>
+        <v>-23.87714239064838</v>
       </c>
       <c r="F38" t="n">
-        <v>3.007194510482652</v>
+        <v>2.996275529912653</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.872277031781765</v>
+        <v>-4.865102449824499</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.690014209443528</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.39524090765012</v>
+        <v>-23.37920283666901</v>
       </c>
       <c r="F39" t="n">
-        <v>2.978365259625171</v>
+        <v>2.96721061760402</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.746643293712562</v>
+        <v>-4.740804126645152</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.781005161088454</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.01339080296834</v>
+        <v>-22.99787642410089</v>
       </c>
       <c r="F40" t="n">
-        <v>3.062444028474736</v>
+        <v>3.049011325759125</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.736352743678965</v>
+        <v>-4.731979914529829</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.845471203578582</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.48378096841484</v>
+        <v>-22.46858080481559</v>
       </c>
       <c r="F41" t="n">
-        <v>3.082998943936246</v>
+        <v>3.070980209927541</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.664541462592098</v>
+        <v>-4.660234094957169</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.903543939134702</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.81077114083591</v>
+        <v>-21.79682783830947</v>
       </c>
       <c r="F42" t="n">
-        <v>3.179751061936602</v>
+        <v>3.168413127675667</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.69110574505796</v>
+        <v>-4.686444885246305</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.965200793083258</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.1483398939531</v>
+        <v>-21.13464534518065</v>
       </c>
       <c r="F43" t="n">
-        <v>3.29760797211782</v>
+        <v>3.286086745617101</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.731848991501411</v>
+        <v>-4.726127655159577</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.039302986821742</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.86106858499994</v>
+        <v>-20.84813338979232</v>
       </c>
       <c r="F44" t="n">
-        <v>3.206852128818975</v>
+        <v>3.19627354812286</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.785043017947344</v>
+        <v>-4.780015573656121</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.133991964857214</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.37745201032942</v>
+        <v>-20.36555110704629</v>
       </c>
       <c r="F45" t="n">
-        <v>3.330967159758538</v>
+        <v>3.319315010229401</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.734991144183425</v>
+        <v>-4.730723053457023</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.242825074006385</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.04825914767706</v>
+        <v>-20.03583455228026</v>
       </c>
       <c r="F46" t="n">
-        <v>3.359848779827385</v>
+        <v>3.348484660960767</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.717512919889721</v>
+        <v>-4.716007305062923</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.369074136877924</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.50831948618144</v>
+        <v>-19.4972303056745</v>
       </c>
       <c r="F47" t="n">
-        <v>3.36898720721091</v>
+        <v>3.358146780457961</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.990029203540249</v>
+        <v>-4.989413865306688</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.502937080304627</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.03437812331095</v>
+        <v>-19.0236948041921</v>
       </c>
       <c r="F48" t="n">
-        <v>3.300593017165733</v>
+        <v>3.290538128583288</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.105974637506575</v>
+        <v>-5.105594960724165</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.637688729969243</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.64287899143482</v>
+        <v>-18.63040202682665</v>
       </c>
       <c r="F49" t="n">
-        <v>3.320179102216955</v>
+        <v>3.310333690479977</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.392355669866491</v>
+        <v>-5.39120354721642</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.772185297512158</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.1298309199761</v>
+        <v>-18.11794310899581</v>
       </c>
       <c r="F50" t="n">
-        <v>3.456574713222058</v>
+        <v>3.444817825270188</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.317808097485703</v>
+        <v>-5.32043965035689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.895870650663438</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.46364218217771</v>
+        <v>-17.45120449447807</v>
       </c>
       <c r="F51" t="n">
-        <v>3.471552307672992</v>
+        <v>3.458931327733568</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.530898418537636</v>
+        <v>-5.533608525225874</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.01642636350553</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.07230015793568</v>
+        <v>-17.06021596241276</v>
       </c>
       <c r="F52" t="n">
-        <v>3.303237662339762</v>
+        <v>3.291742620444726</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814543159603632</v>
+        <v>-5.81407183670133</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.133446190419985</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.68049990309418</v>
+        <v>-16.66768253861213</v>
       </c>
       <c r="F53" t="n">
-        <v>3.339660448845444</v>
+        <v>3.328898575909545</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846226532480609</v>
+        <v>-5.846370547811868</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.250570558016939</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.47949377756516</v>
+        <v>-16.46498750601653</v>
       </c>
       <c r="F54" t="n">
-        <v>3.075798177373297</v>
+        <v>3.065533811945383</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.02615405043445</v>
+        <v>-6.027541834535673</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.378159597982685</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.18677607062985</v>
+        <v>-16.17124859945956</v>
       </c>
       <c r="F55" t="n">
-        <v>2.927724232233375</v>
+        <v>2.917119466931577</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.172447442387897</v>
+        <v>-6.175380118224444</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.512083680992164</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.85348531718803</v>
+        <v>-15.83629512355684</v>
       </c>
       <c r="F56" t="n">
-        <v>2.873941052159564</v>
+        <v>2.863336286857766</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476791114246661</v>
+        <v>-6.477275529451806</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.66243848154919</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.30716970420849</v>
+        <v>-15.29011043360572</v>
       </c>
       <c r="F57" t="n">
-        <v>2.906357593995678</v>
+        <v>2.893998460113088</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734774941742874</v>
+        <v>-6.735468833793485</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.826488658270729</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.10270721072925</v>
+        <v>-15.08461364820198</v>
       </c>
       <c r="F58" t="n">
-        <v>2.747129006834605</v>
+        <v>2.734350919261081</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709663904892443</v>
+        <v>-6.709938843252119</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.999463334222398</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.7566383697139</v>
+        <v>-14.73786400743887</v>
       </c>
       <c r="F59" t="n">
-        <v>2.869280192347909</v>
+        <v>2.854852474616327</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.821040125167007</v>
+        <v>-6.821904217154561</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.182111110374503</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.69819432982844</v>
+        <v>-14.67817619878344</v>
       </c>
       <c r="F60" t="n">
-        <v>2.688239828652522</v>
+        <v>2.673812110920939</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823540755009776</v>
+        <v>-6.823488385798409</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.358710748516115</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.35479631859281</v>
+        <v>-14.33511858742169</v>
       </c>
       <c r="F61" t="n">
-        <v>2.573865471027203</v>
+        <v>2.55928064566152</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.227058620894615</v>
+        <v>-7.225330436919508</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.52847251329617</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.1435651045444</v>
+        <v>-14.12183188182713</v>
       </c>
       <c r="F62" t="n">
-        <v>2.526026196443536</v>
+        <v>2.510734386724399</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177622085364258</v>
+        <v>-7.177975577540985</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.679499616199865</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.82420456132617</v>
+        <v>-13.80228804636912</v>
       </c>
       <c r="F63" t="n">
-        <v>2.453809053968575</v>
+        <v>2.438595798066489</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.374818350766336</v>
+        <v>-7.373404382059429</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.800116938468243</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.63410432406431</v>
+        <v>-13.61097022494298</v>
       </c>
       <c r="F64" t="n">
-        <v>2.364022041080017</v>
+        <v>2.348206539247212</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.399615172348565</v>
+        <v>-7.4018539561345</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.888043487443776</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.44338874856889</v>
+        <v>-13.41975714193957</v>
       </c>
       <c r="F65" t="n">
-        <v>2.129538897184703</v>
+        <v>2.117336870936215</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741258815003407</v>
+        <v>-7.741010061249414</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.928521142517631</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.22688133647526</v>
+        <v>-13.20280459154933</v>
       </c>
       <c r="F66" t="n">
-        <v>2.062925260326001</v>
+        <v>2.050670864866146</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.788954074255815</v>
+        <v>-7.790394227568405</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.92413334958663</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.05661593801861</v>
+        <v>-13.03230353164153</v>
       </c>
       <c r="F67" t="n">
-        <v>2.327311223911817</v>
+        <v>2.310160307189156</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.861642539633078</v>
+        <v>-7.860608247708582</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.869939165885596</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.00486206488527</v>
+        <v>-12.97965938191495</v>
       </c>
       <c r="F68" t="n">
-        <v>2.044072344233915</v>
+        <v>2.030220687827369</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.767063743904449</v>
+        <v>-7.768477712611356</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.762798078561692</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.86415908624524</v>
+        <v>-12.83877311103513</v>
       </c>
       <c r="F69" t="n">
-        <v>2.094844294654129</v>
+        <v>2.077300608846216</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.839398717104985</v>
+        <v>-7.840825778114733</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.608489891464633</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.83777809601916</v>
+        <v>-12.81069012143963</v>
       </c>
       <c r="F70" t="n">
-        <v>2.095734571247367</v>
+        <v>2.079238269666792</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.749899734878946</v>
+        <v>-7.752046872544989</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.401467341207248</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.53367008561155</v>
+        <v>-12.50742001841389</v>
       </c>
       <c r="F71" t="n">
-        <v>2.050409018809311</v>
+        <v>2.033546132749168</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.465574194065181</v>
+        <v>-7.470915853624605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.152439722585857</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.46632327979371</v>
+        <v>-12.44033505865289</v>
       </c>
       <c r="F72" t="n">
-        <v>2.061197076350893</v>
+        <v>2.045276836095354</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.527540063415071</v>
+        <v>-7.531533215781797</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.865205110510966</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.16428385323509</v>
+        <v>-12.14459302976114</v>
       </c>
       <c r="F73" t="n">
-        <v>2.037159608333484</v>
+        <v>2.021186998866578</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.268508851691521</v>
+        <v>-7.275761987465836</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.54595509639924</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.36583985548346</v>
+        <v>-12.34601810898109</v>
       </c>
       <c r="F74" t="n">
-        <v>2.062113537549814</v>
+        <v>2.046638435590894</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.214764948526235</v>
+        <v>-7.220643392502169</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.208392436405202</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.49843869866447</v>
+        <v>-12.47851221373936</v>
       </c>
       <c r="F75" t="n">
-        <v>1.994085931984205</v>
+        <v>1.978610830025285</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.139994806997137</v>
+        <v>-7.144603297597425</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.853983917202693</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.76078226300697</v>
+        <v>-12.74257086975413</v>
       </c>
       <c r="F76" t="n">
-        <v>1.976594615387659</v>
+        <v>1.962088343839027</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.800367378979921</v>
+        <v>-6.808262037593482</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.496902460141258</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.33811354141857</v>
+        <v>-13.32071387094191</v>
       </c>
       <c r="F77" t="n">
-        <v>1.968608310654206</v>
+        <v>1.953709270020322</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.738034925150464</v>
+        <v>-6.743442046224096</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.141633478396066</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.83205994303121</v>
+        <v>-13.81547199533074</v>
       </c>
       <c r="F78" t="n">
-        <v>2.018071030790248</v>
+        <v>2.002674482648378</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.746492552786219</v>
+        <v>-6.748574228938053</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.792171052196333</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.3209396234441</v>
+        <v>-14.30449569107489</v>
       </c>
       <c r="F79" t="n">
-        <v>2.063763167707871</v>
+        <v>2.048680834834203</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646218605321438</v>
+        <v>-6.646598282103849</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.459747300204246</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.86979514317494</v>
+        <v>-14.85357377995404</v>
       </c>
       <c r="F80" t="n">
-        <v>1.95771551468989</v>
+        <v>1.944780319482265</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.298539411056561</v>
+        <v>-6.300765102539654</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.143600376143652</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.64245048768225</v>
+        <v>-15.62649097051818</v>
       </c>
       <c r="F81" t="n">
-        <v>2.054703294141397</v>
+        <v>2.040956376157585</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.237634018236851</v>
+        <v>-6.238615940949981</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.855502416641427</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.37271295558804</v>
+        <v>-16.35730331514333</v>
       </c>
       <c r="F82" t="n">
-        <v>2.029094749782981</v>
+        <v>2.016683246689025</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.137726655251639</v>
+        <v>-6.139035885535812</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.602726007149054</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.2489284155734</v>
+        <v>-17.23334857519175</v>
       </c>
       <c r="F83" t="n">
-        <v>2.008958788012406</v>
+        <v>1.996023592804781</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.844131764025932</v>
+        <v>-5.846213440177767</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.390316724702304</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.30348722486875</v>
+        <v>-18.28827396896667</v>
       </c>
       <c r="F84" t="n">
-        <v>2.024643366816794</v>
+        <v>2.013253063344492</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729246806589787</v>
+        <v>-5.729665760280722</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.235717886039416</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.10330909777264</v>
+        <v>-19.08837078023023</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04941400379334</v>
+        <v>2.037290531361901</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.588543827949756</v>
+        <v>-5.587430982208209</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.144237645145634</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.24888559642367</v>
+        <v>-20.23262495629425</v>
       </c>
       <c r="F86" t="n">
-        <v>2.037500008207369</v>
+        <v>2.025533643410031</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252215660248655</v>
+        <v>-5.251993091100347</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.130225383340385</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.31454667852881</v>
+        <v>-21.29814202306812</v>
       </c>
       <c r="F87" t="n">
-        <v>1.869761424199175</v>
+        <v>1.86214170394529</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.895332577086045</v>
+        <v>-4.897047668758311</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.206327782782822</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.65745036561033</v>
+        <v>-22.64149084844627</v>
       </c>
       <c r="F88" t="n">
-        <v>1.962062159233343</v>
+        <v>1.953552162386222</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661792078995335</v>
+        <v>-4.661752802086809</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.372479095186705</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.04197448342571</v>
+        <v>-24.02788716556801</v>
       </c>
       <c r="F89" t="n">
-        <v>1.825299963748673</v>
+        <v>1.81519270595486</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.279064790023157</v>
+        <v>-4.280007435827761</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.6426333075483</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.51189969267766</v>
+        <v>-25.49824442081374</v>
       </c>
       <c r="F90" t="n">
-        <v>1.61380690364343</v>
+        <v>1.605113614556524</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.162058879526651</v>
+        <v>-4.161260249053305</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.012463838731089</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.15571686827342</v>
+        <v>-27.14228416555781</v>
       </c>
       <c r="F91" t="n">
-        <v>1.410588178934158</v>
+        <v>1.402785166440489</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063356008402878</v>
+        <v>-4.063918977425073</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.478942525773584</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75389427616292</v>
+        <v>-28.74281818795882</v>
       </c>
       <c r="F92" t="n">
-        <v>1.2893927315283</v>
+        <v>1.282401441810818</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794518661850875</v>
+        <v>-3.795605322986738</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.039267675342193</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60467457508068</v>
+        <v>-30.59455422498403</v>
       </c>
       <c r="F93" t="n">
-        <v>1.151229659639565</v>
+        <v>1.144591862098809</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.787357172196451</v>
+        <v>-3.789556679073861</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.668992906711385</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68479274287697</v>
+        <v>-32.67607326918437</v>
       </c>
       <c r="F94" t="n">
-        <v>1.038426378355253</v>
+        <v>1.032286088322483</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.783141450681415</v>
+        <v>-3.786296695666271</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.358588905274952</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.71794882037997</v>
+        <v>-34.71057785388008</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6339527743629676</v>
+        <v>0.6276553766960974</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.769185055852135</v>
+        <v>-3.772746162225085</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.086108035199525</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.690304243486</v>
+        <v>-36.68398066121345</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4081236426460346</v>
+        <v>0.4005824762092005</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.980953054317054</v>
+        <v>-3.983702437913817</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.821243467280299</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78055585368178</v>
+        <v>-38.77522728642519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02830284490471968</v>
+        <v>0.02196617032932426</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.981110161951155</v>
+        <v>-3.985823390974176</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.561379218547698</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00772676699633</v>
+        <v>-41.0050821218223</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1832818613204153</v>
+        <v>-0.1907968431515661</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.181514041549456</v>
+        <v>-4.186384378206577</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.262349108252824</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38837874652442</v>
+        <v>-43.38671602406352</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1039163214938719</v>
+        <v>-0.1113265649022888</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.510104658271096</v>
+        <v>-4.514765518082752</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.949870913214845</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79638054668889</v>
+        <v>-45.79645910050594</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3680797159313788</v>
+        <v>-0.3727798526515584</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.695635681841197</v>
+        <v>-4.701631956542707</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.57241933463627</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19519155025847</v>
+        <v>-48.19536175019541</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3074492614713453</v>
+        <v>-0.3141263359206256</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.975797870351293</v>
+        <v>-4.983561605936437</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.20183597457096</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41407503587421</v>
+        <v>-50.41590795827204</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4532713305224903</v>
+        <v>-0.4594639897666267</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.332694045816746</v>
+        <v>-5.339580597111493</v>
       </c>
     </row>
   </sheetData>
